--- a/Test Data/TC_61_Verify_Accessories_Gallery_Update_On_Max_Limit_Of_IOB_FB_PCS_POS_Supported_By_Panel_Is_Reached.xlsx
+++ b/Test Data/TC_61_Verify_Accessories_Gallery_Update_On_Max_Limit_Of_IOB_FB_PCS_POS_Supported_By_Panel_Is_Reached.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB4FEB7-26AD-45FE-BCC9-A428918D5345}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1BFCEA-8385-4925-A7C5-85DEC5C99342}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Add Panels" sheetId="10" r:id="rId1"/>
+    <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
+    <sheet name="Add POS Devices" sheetId="10" r:id="rId2"/>
+    <sheet name="Delete Devices" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
   <si>
     <t>Color Codes</t>
   </si>
@@ -57,6 +59,9 @@
     <t>Expected value</t>
   </si>
   <si>
+    <t>Devices</t>
+  </si>
+  <si>
     <t>PCS800</t>
   </si>
   <si>
@@ -72,25 +77,118 @@
     <t>Accessories</t>
   </si>
   <si>
+    <t>Backplane1</t>
+  </si>
+  <si>
+    <t>Backplane2</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>PLX800</t>
+  </si>
+  <si>
+    <t>PNI800</t>
+  </si>
+  <si>
+    <t>Slot Cards</t>
+  </si>
+  <si>
+    <t>Panel Type</t>
+  </si>
+  <si>
+    <t>PFI</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Backplane3</t>
+  </si>
+  <si>
+    <t>Panel Name</t>
+  </si>
+  <si>
+    <t>Panel Node</t>
+  </si>
+  <si>
+    <t>CPU Type</t>
+  </si>
+  <si>
+    <t>Node1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Backplane1SLotCardName</t>
+  </si>
+  <si>
+    <t>Backplane2SLotCardName</t>
+  </si>
+  <si>
+    <t>Backplane3SLotCardName</t>
+  </si>
+  <si>
     <t>FB800</t>
   </si>
   <si>
+    <t>Shopping List Devices</t>
+  </si>
+  <si>
+    <t>Shopping list Count</t>
+  </si>
+  <si>
+    <t>Second Device</t>
+  </si>
+  <si>
+    <t>Fourth Device</t>
+  </si>
+  <si>
+    <t>POS800-M-1</t>
+  </si>
+  <si>
+    <t>First Device Label</t>
+  </si>
+  <si>
+    <t>Third Device Label</t>
+  </si>
+  <si>
+    <t>Devices Label</t>
+  </si>
+  <si>
+    <t>Pro16xD</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (1 of 4)</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (2 of 4)</t>
+  </si>
+  <si>
+    <t>Device State</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Pro32xD</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (6 of 6)</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (2 of 6)</t>
+  </si>
+  <si>
     <t>NGC390/TC61</t>
   </si>
   <si>
     <t>VerifyAccessoriesGalleryUpdateOnMaxLimitSupportedByPanel</t>
-  </si>
-  <si>
-    <t>Accessories_Gallery_Update_On_Max_Limit_Of_IOBFBPCSPOS_Supported_By_Panel_Is_Reached</t>
-  </si>
-  <si>
-    <t>Device Name</t>
-  </si>
-  <si>
-    <t>Gallery Type</t>
-  </si>
-  <si>
-    <t>Max Limit</t>
   </si>
 </sst>
 </file>
@@ -147,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -170,38 +268,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,176 +637,847 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939E8908-7184-4646-AB6C-F6B800EEE5DF}">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G10" sqref="G10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.77734375" customWidth="1"/>
-    <col min="10" max="13" width="25.21875" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="G10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939E8908-7184-4646-AB6C-F6B800EEE5DF}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="5" t="s">
+      <c r="H8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F21F03D-D282-4C7B-B0A6-16427F6B0C5D}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="H3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5">
+        <v>6</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D5" s="2"/>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="L8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="H9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="I9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2</v>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D2:E2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="D7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Test Data/TC_61_Verify_Accessories_Gallery_Update_On_Max_Limit_Of_IOB_FB_PCS_POS_Supported_By_Panel_Is_Reached.xlsx
+++ b/Test Data/TC_61_Verify_Accessories_Gallery_Update_On_Max_Limit_Of_IOB_FB_PCS_POS_Supported_By_Panel_Is_Reached.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1BFCEA-8385-4925-A7C5-85DEC5C99342}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AAD4A1-9AA1-4A7E-87DA-18FCE2006713}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="51">
   <si>
     <t>Color Codes</t>
   </si>
@@ -179,16 +179,13 @@
     <t>Pro32xD</t>
   </si>
   <si>
-    <t>Other Slot Cards  (6 of 6)</t>
-  </si>
-  <si>
-    <t>Other Slot Cards  (2 of 6)</t>
-  </si>
-  <si>
     <t>NGC390/TC61</t>
   </si>
   <si>
     <t>VerifyAccessoriesGalleryUpdateOnMaxLimitSupportedByPanel</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (8 of 18)</t>
   </si>
 </sst>
 </file>
@@ -640,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -709,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -911,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939E8908-7184-4646-AB6C-F6B800EEE5DF}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,7 +959,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -980,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -1109,8 +1106,8 @@
       <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>16</v>
+      <c r="F10" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>16</v>
@@ -1119,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>22</v>
@@ -1200,7 +1197,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -1228,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
